--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Andres\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5E3189-647F-4880-97B1-C93FCDA8BC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD99017-2CAC-47BC-9959-AF5622377F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2BF69180-0248-4413-85C9-5EF178573347}"/>
   </bookViews>
@@ -540,13 +540,13 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" customWidth="1"/>
@@ -614,12 +614,15 @@
       <c r="E2">
         <v>37</v>
       </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
       <c r="G2">
         <f>AVERAGE(E2,F2)</f>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>68.75</v>
@@ -629,14 +632,14 @@
       </c>
       <c r="K2">
         <f>(C2+D2+G2+H2+I2+J2)/6</f>
-        <v>60.125</v>
+        <v>68.291666666666671</v>
       </c>
       <c r="L2">
         <v>90</v>
       </c>
       <c r="M2">
         <f>(K2*6)/100</f>
-        <v>3.6074999999999999</v>
+        <v>4.0975000000000001</v>
       </c>
       <c r="N2">
         <f>(L2*4)/100</f>
@@ -673,18 +676,18 @@
         <v>93.75</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K16" si="1">(C3+D3+G3+H3+I3+J3)/6</f>
-        <v>62.291666666666664</v>
+        <v>66.458333333333329</v>
       </c>
       <c r="L3">
         <v>75</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M16" si="2">(K3*6)/100</f>
-        <v>3.7374999999999998</v>
+        <v>3.9874999999999998</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N16" si="3">(L3*4)/100</f>
@@ -721,18 +724,18 @@
         <v>81.25</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>73.958333333333329</v>
       </c>
       <c r="L4">
         <v>80</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>3.9375</v>
+        <v>4.4375</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -769,18 +772,18 @@
         <v>81.25</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>69.375</v>
+        <v>77.708333333333329</v>
       </c>
       <c r="L5">
         <v>88</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>4.1624999999999996</v>
+        <v>4.6624999999999996</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -1105,18 +1108,18 @@
         <v>81.25</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>63.125</v>
+        <v>75.625</v>
       </c>
       <c r="L12">
         <v>80</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>3.7875000000000001</v>
+        <v>4.5374999999999996</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -1201,18 +1204,18 @@
         <v>75</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>73.583333333333329</v>
+        <v>77.75</v>
       </c>
       <c r="L14">
         <v>80</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>4.415</v>
+        <v>4.665</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -1235,9 +1238,12 @@
       <c r="E15">
         <v>54</v>
       </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -1250,14 +1256,14 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>82.833333333333329</v>
       </c>
       <c r="L15">
         <v>75</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>4.74</v>
+        <v>4.97</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar Andres\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBA903E-748A-469F-904E-4DDF6DBEA912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64139787-162A-4C39-BBFA-FC2EF1BC797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{058DB4BA-886F-4B71-BBBC-82D8B1A18708}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +573,7 @@
         <v>87.5</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <f>AVERAGE(C2:D2)</f>
@@ -585,7 +585,7 @@
       </c>
       <c r="H2">
         <f>E2*4/100</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -602,7 +602,7 @@
         <v>87.5</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" si="0">AVERAGE(C3:D3)</f>
@@ -614,7 +614,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H16" si="2">E3*4/100</f>
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -660,7 +660,7 @@
         <v>87.5</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -689,7 +689,7 @@
         <v>87.5</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -718,7 +718,7 @@
         <v>87.5</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -747,7 +747,7 @@
         <v>87.5</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -773,22 +773,22 @@
         <v>80</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>78.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>4.71</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
         <v>87.5</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>87.5</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
         <v>87.5</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
